--- a/projetPlanteConnectees/Documentation API.xlsx
+++ b/projetPlanteConnectees/Documentation API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projetPlanteConnectees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD2E9B1-7006-412B-AF07-E92A105D57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10077DC8-FF38-4BC9-AAEB-0C924FE00F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E198EFBA-C919-4F27-95C3-D1F865F3E1C0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Description</t>
   </si>
@@ -82,10 +82,49 @@
     <t>https://azammouri.com/pc/uploads/mesures.php?id={Adresse_Mac_Plante}&amp;last</t>
   </si>
   <si>
-    <t>Recuperer l'ensemble des mesures classés chronologiquement pour la plante ayant l'adresse Mac {Adresse_Mac_Plante}</t>
-  </si>
-  <si>
     <t>Recuperer la derniere des mesures pour la plante ayant l'adresse Mac {Adresse_Mac_Plante}</t>
+  </si>
+  <si>
+    <t>Recuperer l'ensemble des irrigations pour l'ensemble des plantes</t>
+  </si>
+  <si>
+    <t>Recuperer l'ensemble des irrigations classés chronologiquement pour la plante ayant l'adresse Mac {Adresse_Mac_Plante}</t>
+  </si>
+  <si>
+    <t>Recuperer la derniere des irrigations pour la plante ayant l'adresse Mac {Adresse_Mac_Plante}</t>
+  </si>
+  <si>
+    <t>Recuperer l'ensemble des mesures classés chronologiquement (de la plus ancienne à la plus récente mesure) pour la plante ayant l'adresse Mac {Adresse_Mac_Plante}</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/irrigation.php</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/irrigation.php?id=AC:67:B2:36:61:D4</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/irrigation.php?id=AC:67:B2:36:61:D4&amp;last</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/irrigation.php?id={Adresse_Mac_Plante}</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/irrigation.php?id={Adresse_Mac_Plante}&amp;last</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Mettre à jour la plante ayant l'adresse mac {Adresse_Mac} dans la base de donnée</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Supprimer la plante ayant l'adresse mac {Adresse_mac} dans la base de donnée</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/plante.php?id={Adresse_Mac_Plante}</t>
   </si>
 </sst>
 </file>
@@ -458,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5CBC76-C877-4CC1-A542-87D80629B17C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -549,63 +588,97 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
@@ -620,8 +693,16 @@
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{10B4E035-5CB7-4A25-AFE4-02EC4F7A7C27}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{627C27B5-B253-4501-BCD3-1C6D3B781C52}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{3E9A1E12-3BB3-40B8-A67B-2C955E2E5E8B}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{1D3687A9-6079-4463-89FC-A7A30903426E}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{8FFA3E7F-91ED-42CD-97D9-DBF7853E453C}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{BEC7FC2C-3159-44EE-93D6-B37456B75141}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{210BE148-31A5-4946-85BC-517410C5D61D}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{D2015041-5EF3-4484-AF14-0A38214BB924}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{A904E632-5837-41E4-A795-9789E1E6F51C}"/>
+    <hyperlink ref="A9" r:id="rId10" xr:uid="{3C403C09-B713-4D29-824D-E93FC79631EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/projetPlanteConnectees/Documentation API.xlsx
+++ b/projetPlanteConnectees/Documentation API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projetPlanteConnectees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10077DC8-FF38-4BC9-AAEB-0C924FE00F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E5F92-8033-40EF-88C5-738B3D1D4E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E198EFBA-C919-4F27-95C3-D1F865F3E1C0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Description</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>https://azammouri.com/pc/uploads/plante.php?id={Adresse_Mac_Plante}</t>
+  </si>
+  <si>
+    <t>Recuperer les {n} dernières mesures classés chronologiquement (de la plus ancienne à la plus récente mesure) pour la plante ayant l'adresse Mac {Adresse_Mac_Plante}</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/mesures.php?id=AC:67:B2:36:61:D4&amp;nbrMesure=20</t>
+  </si>
+  <si>
+    <t>https://azammouri.com/pc/uploads/plante.php?id={Adresse_Mac_Plante}&amp;nbrMesure={n}</t>
   </si>
 </sst>
 </file>
@@ -497,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5CBC76-C877-4CC1-A542-87D80629B17C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,11 +685,21 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -701,8 +720,9 @@
     <hyperlink ref="A8" r:id="rId8" xr:uid="{D2015041-5EF3-4484-AF14-0A38214BB924}"/>
     <hyperlink ref="A10" r:id="rId9" xr:uid="{A904E632-5837-41E4-A795-9789E1E6F51C}"/>
     <hyperlink ref="A9" r:id="rId10" xr:uid="{3C403C09-B713-4D29-824D-E93FC79631EE}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{300D2F02-FC9D-4B62-894A-2E9F27249965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>